--- a/data/trans_orig/P33_1_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P33_1_2023-Estudios-trans_orig.xlsx
@@ -560,10 +560,10 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>7.08779221102923</v>
+        <v>7.087792211029228</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>6.895112644045424</v>
+        <v>6.895112644045427</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>6.975380783047694</v>
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>6.983412704394442</v>
+        <v>6.993386802008552</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>6.821942089360028</v>
+        <v>6.817666411223268</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6.916032285385604</v>
+        <v>6.912513595310063</v>
       </c>
     </row>
     <row r="6">
@@ -594,13 +594,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>7.185633030315832</v>
+        <v>7.185160363443641</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>6.97051076241419</v>
+        <v>6.969345408318421</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.034183506961615</v>
+        <v>7.03455848803458</v>
       </c>
     </row>
     <row r="7">
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>7.11812722016811</v>
+        <v>7.117551702981454</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>7.005449571210407</v>
+        <v>7.006972752449143</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>7.074627348985527</v>
+        <v>7.077049153858624</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>7.221267327838211</v>
+        <v>7.225251278365601</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>7.096909045861254</v>
+        <v>7.104199516898505</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>7.148172112352629</v>
+        <v>7.147421030888441</v>
       </c>
     </row>
     <row r="10">
@@ -670,7 +670,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>7.014979544764605</v>
+        <v>7.014979544764606</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>6.984668526978737</v>
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>6.930622345341392</v>
+        <v>6.933899459608635</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>6.915813935995342</v>
+        <v>6.91444187231534</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>6.944696649302509</v>
+        <v>6.944153705026524</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>7.097544628968407</v>
+        <v>7.100904555416624</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>7.065793310608504</v>
+        <v>7.070612663059271</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7.053503648146037</v>
+        <v>7.054805986196131</v>
       </c>
     </row>
     <row r="13">
@@ -728,7 +728,7 @@
         <v>7.124496627139608</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>7.005761206638973</v>
+        <v>7.005761206638972</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>7.063431421162198</v>
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>7.084216876361105</v>
+        <v>7.083015718142195</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>6.971473324090521</v>
+        <v>6.965188418661793</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>7.035790992819059</v>
+        <v>7.038870055161214</v>
       </c>
     </row>
     <row r="15">
@@ -759,13 +759,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>7.162691365035008</v>
+        <v>7.164632104421763</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>7.04515943561177</v>
+        <v>7.038199029795942</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>7.089023170834471</v>
+        <v>7.091281193846905</v>
       </c>
     </row>
     <row r="16">
